--- a/genetic-conference/results.xlsx
+++ b/genetic-conference/results.xlsx
@@ -620,7 +620,9 @@
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" s="5" t="n"/>
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
@@ -646,9 +648,7 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
+      <c r="D7" s="5" t="n"/>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -660,9 +660,7 @@
       <c r="M7" s="5" t="n"/>
       <c r="N7" s="5" t="n"/>
       <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n">
-        <v>9</v>
-      </c>
+      <c r="P7" s="5" t="n"/>
       <c r="Q7" s="5" t="n"/>
       <c r="R7" s="5" t="n"/>
       <c r="S7" s="5" t="n"/>
@@ -719,9 +717,7 @@
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="5" t="n"/>
       <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n">
-        <v>5</v>
-      </c>
+      <c r="I9" s="5" t="n"/>
       <c r="J9" s="5" t="n"/>
       <c r="K9" s="5" t="n"/>
       <c r="L9" s="5" t="n"/>
@@ -782,9 +778,7 @@
       <c r="C11" s="5" t="n"/>
       <c r="D11" s="5" t="n"/>
       <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n">
-        <v>17</v>
-      </c>
+      <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
       <c r="I11" s="5" t="n"/>
@@ -883,7 +877,9 @@
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
+      <c r="I14" s="5" t="n">
+        <v>21</v>
+      </c>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
@@ -910,12 +906,16 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
+      <c r="D15" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="5" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
@@ -978,14 +978,14 @@
       <c r="E17" s="5" t="n"/>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H17" s="5" t="n"/>
       <c r="I17" s="5" t="n"/>
       <c r="J17" s="5" t="n"/>
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
+      <c r="M17" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="N17" s="5" t="n"/>
       <c r="O17" s="5" t="n"/>
       <c r="P17" s="5" t="n"/>
@@ -1018,7 +1018,9 @@
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
+      <c r="N18" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="O18" s="5" t="n"/>
       <c r="P18" s="5" t="n"/>
       <c r="Q18" s="5" t="n"/>
@@ -1077,9 +1079,7 @@
       <c r="F20" s="5" t="n"/>
       <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n">
-        <v>18</v>
-      </c>
+      <c r="I20" s="5" t="n"/>
       <c r="J20" s="5" t="n"/>
       <c r="K20" s="5" t="n"/>
       <c r="L20" s="5" t="n"/>
@@ -1138,9 +1138,7 @@
         <v>0.5</v>
       </c>
       <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n">
-        <v>10</v>
-      </c>
+      <c r="D22" s="5" t="n"/>
       <c r="E22" s="5" t="n"/>
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
@@ -1150,9 +1148,7 @@
       <c r="K22" s="5" t="n"/>
       <c r="L22" s="5" t="n"/>
       <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n">
-        <v>15</v>
-      </c>
+      <c r="N22" s="5" t="n"/>
       <c r="O22" s="5" t="n"/>
       <c r="P22" s="5" t="n"/>
       <c r="Q22" s="5" t="n"/>
@@ -1181,7 +1177,9 @@
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="5" t="n"/>
       <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
+      <c r="K23" s="5" t="n">
+        <v>12</v>
+      </c>
       <c r="L23" s="5" t="n"/>
       <c r="M23" s="5" t="n"/>
       <c r="N23" s="5" t="n"/>
@@ -1244,7 +1242,9 @@
       <c r="G25" s="5" t="n"/>
       <c r="H25" s="5" t="n"/>
       <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n"/>
+      <c r="J25" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="K25" s="5" t="n"/>
       <c r="L25" s="5" t="n"/>
       <c r="M25" s="5" t="n"/>
@@ -1434,7 +1434,9 @@
       <c r="E31" s="5" t="n"/>
       <c r="F31" s="5" t="n"/>
       <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
+      <c r="H31" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="I31" s="5" t="n"/>
       <c r="J31" s="5" t="n"/>
       <c r="K31" s="5" t="n"/>
@@ -1526,13 +1528,17 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="C34" s="5" t="n"/>
-      <c r="D34" s="5" t="n"/>
+      <c r="D34" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="5" t="n"/>
       <c r="G34" s="5" t="n"/>
       <c r="H34" s="5" t="n"/>
       <c r="I34" s="5" t="n"/>
-      <c r="J34" s="5" t="n"/>
+      <c r="J34" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="K34" s="5" t="n"/>
       <c r="L34" s="5" t="n"/>
       <c r="M34" s="5" t="n"/>
@@ -1634,7 +1640,9 @@
       <c r="M37" s="5" t="n"/>
       <c r="N37" s="5" t="n"/>
       <c r="O37" s="5" t="n"/>
-      <c r="P37" s="5" t="n"/>
+      <c r="P37" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="Q37" s="5" t="n"/>
       <c r="R37" s="5" t="n"/>
       <c r="S37" s="5" t="n"/>
@@ -1658,7 +1666,9 @@
       <c r="E38" s="5" t="n"/>
       <c r="F38" s="5" t="n"/>
       <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
+      <c r="H38" s="5" t="n">
+        <v>17</v>
+      </c>
       <c r="I38" s="5" t="n"/>
       <c r="J38" s="5" t="n"/>
       <c r="K38" s="5" t="n"/>
@@ -1695,7 +1705,9 @@
       <c r="J39" s="5" t="n"/>
       <c r="K39" s="5" t="n"/>
       <c r="L39" s="5" t="n"/>
-      <c r="M39" s="5" t="n"/>
+      <c r="M39" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="N39" s="5" t="n"/>
       <c r="O39" s="5" t="n"/>
       <c r="P39" s="5" t="n"/>
@@ -1722,10 +1734,10 @@
       <c r="E40" s="5" t="n"/>
       <c r="F40" s="5" t="n"/>
       <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
-      <c r="I40" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="H40" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I40" s="5" t="n"/>
       <c r="J40" s="5" t="n"/>
       <c r="K40" s="5" t="n"/>
       <c r="L40" s="5" t="n"/>
@@ -1763,7 +1775,9 @@
       <c r="L41" s="5" t="n"/>
       <c r="M41" s="5" t="n"/>
       <c r="N41" s="5" t="n"/>
-      <c r="O41" s="5" t="n"/>
+      <c r="O41" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="P41" s="5" t="n"/>
       <c r="Q41" s="5" t="n"/>
       <c r="R41" s="5" t="n"/>
@@ -1850,15 +1864,13 @@
       <c r="C44" s="5" t="n"/>
       <c r="D44" s="5" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="5" t="n"/>
+      <c r="F44" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n">
-        <v>13</v>
-      </c>
+      <c r="H44" s="5" t="n"/>
       <c r="I44" s="5" t="n"/>
-      <c r="J44" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="J44" s="5" t="n"/>
       <c r="K44" s="5" t="n"/>
       <c r="L44" s="5" t="n"/>
       <c r="M44" s="5" t="n"/>
@@ -1886,15 +1898,13 @@
       <c r="C45" s="5" t="n"/>
       <c r="D45" s="5" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="F45" s="5" t="n"/>
       <c r="G45" s="5" t="n"/>
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="n"/>
       <c r="J45" s="5" t="n"/>
       <c r="K45" s="5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L45" s="5" t="n"/>
       <c r="M45" s="5" t="n"/>
@@ -1925,18 +1935,14 @@
       <c r="F46" s="5" t="n"/>
       <c r="G46" s="5" t="n"/>
       <c r="H46" s="5" t="n"/>
-      <c r="I46" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="I46" s="5" t="n"/>
       <c r="J46" s="5" t="n"/>
       <c r="K46" s="5" t="n"/>
       <c r="L46" s="5" t="n"/>
       <c r="M46" s="5" t="n"/>
       <c r="N46" s="5" t="n"/>
       <c r="O46" s="5" t="n"/>
-      <c r="P46" s="5" t="n">
-        <v>6</v>
-      </c>
+      <c r="P46" s="5" t="n"/>
       <c r="Q46" s="5" t="n"/>
       <c r="R46" s="5" t="n"/>
       <c r="S46" s="5" t="n"/>
@@ -1960,9 +1966,7 @@
       <c r="E47" s="5" t="n"/>
       <c r="F47" s="5" t="n"/>
       <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n">
-        <v>16</v>
-      </c>
+      <c r="H47" s="5" t="n"/>
       <c r="I47" s="5" t="n"/>
       <c r="J47" s="5" t="n"/>
       <c r="K47" s="5" t="n"/>
@@ -1990,14 +1994,20 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="C48" s="5" t="n"/>
-      <c r="D48" s="5" t="n"/>
-      <c r="E48" s="5" t="n"/>
+      <c r="D48" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="F48" s="5" t="n"/>
       <c r="G48" s="5" t="n"/>
       <c r="H48" s="5" t="n"/>
       <c r="I48" s="5" t="n"/>
       <c r="J48" s="5" t="n"/>
-      <c r="K48" s="5" t="n"/>
+      <c r="K48" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="L48" s="5" t="n"/>
       <c r="M48" s="5" t="n"/>
       <c r="N48" s="5" t="n"/>
@@ -2026,7 +2036,9 @@
       <c r="E49" s="5" t="n"/>
       <c r="F49" s="5" t="n"/>
       <c r="G49" s="5" t="n"/>
-      <c r="H49" s="5" t="n"/>
+      <c r="H49" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="I49" s="5" t="n"/>
       <c r="J49" s="5" t="n"/>
       <c r="K49" s="5" t="n"/>
@@ -2034,7 +2046,9 @@
       <c r="M49" s="5" t="n"/>
       <c r="N49" s="5" t="n"/>
       <c r="O49" s="5" t="n"/>
-      <c r="P49" s="5" t="n"/>
+      <c r="P49" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="Q49" s="5" t="n"/>
       <c r="R49" s="5" t="n"/>
       <c r="S49" s="5" t="n"/>
@@ -2061,7 +2075,9 @@
       <c r="H50" s="5" t="n"/>
       <c r="I50" s="5" t="n"/>
       <c r="J50" s="5" t="n"/>
-      <c r="K50" s="5" t="n"/>
+      <c r="K50" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="L50" s="5" t="n"/>
       <c r="M50" s="5" t="n"/>
       <c r="N50" s="5" t="n"/>
@@ -2155,9 +2171,7 @@
       <c r="F53" s="5" t="n"/>
       <c r="G53" s="5" t="n"/>
       <c r="H53" s="5" t="n"/>
-      <c r="I53" s="5" t="n">
-        <v>12</v>
-      </c>
+      <c r="I53" s="5" t="n"/>
       <c r="J53" s="5" t="n"/>
       <c r="K53" s="5" t="n"/>
       <c r="L53" s="5" t="n"/>
@@ -2291,9 +2305,7 @@
       <c r="L57" s="5" t="n"/>
       <c r="M57" s="5" t="n"/>
       <c r="N57" s="5" t="n"/>
-      <c r="O57" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O57" s="5" t="n"/>
       <c r="P57" s="5" t="n"/>
       <c r="Q57" s="5" t="n"/>
       <c r="R57" s="5" t="n"/>
@@ -2314,7 +2326,9 @@
         <v>0.75</v>
       </c>
       <c r="C58" s="5" t="n"/>
-      <c r="D58" s="5" t="n"/>
+      <c r="D58" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="E58" s="5" t="n"/>
       <c r="F58" s="5" t="n"/>
       <c r="G58" s="5" t="n"/>
@@ -2357,9 +2371,7 @@
       <c r="L59" s="5" t="n"/>
       <c r="M59" s="5" t="n"/>
       <c r="N59" s="5" t="n"/>
-      <c r="O59" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="O59" s="5" t="n"/>
       <c r="P59" s="5" t="n"/>
       <c r="Q59" s="5" t="n"/>
       <c r="R59" s="5" t="n"/>

--- a/genetic-conference/results.xlsx
+++ b/genetic-conference/results.xlsx
@@ -613,16 +613,16 @@
       <c r="B6" s="7" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C6" s="5" t="n"/>
+      <c r="C6" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" s="5" t="n"/>
       <c r="K6" s="5" t="n"/>
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
@@ -655,7 +655,9 @@
       <c r="H7" s="5" t="n"/>
       <c r="I7" s="5" t="n"/>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
+      <c r="K7" s="5" t="n">
+        <v>12</v>
+      </c>
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="5" t="n"/>
       <c r="N7" s="5" t="n"/>
@@ -723,7 +725,9 @@
       <c r="L9" s="5" t="n"/>
       <c r="M9" s="5" t="n"/>
       <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
+      <c r="O9" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="P9" s="5" t="n"/>
       <c r="Q9" s="5" t="n"/>
       <c r="R9" s="5" t="n"/>
@@ -839,10 +843,14 @@
       <c r="B13" s="7" t="n">
         <v>0.4375</v>
       </c>
-      <c r="C13" s="5" t="n"/>
+      <c r="C13" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="D13" s="5" t="n"/>
       <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
+      <c r="F13" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
       <c r="I13" s="5" t="n"/>
@@ -877,9 +885,7 @@
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n">
-        <v>21</v>
-      </c>
+      <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
@@ -906,16 +912,14 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" s="5" t="n"/>
       <c r="J15" s="5" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
@@ -942,7 +946,9 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="n"/>
@@ -983,9 +989,7 @@
       <c r="J17" s="5" t="n"/>
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n">
-        <v>15</v>
-      </c>
+      <c r="M17" s="5" t="n"/>
       <c r="N17" s="5" t="n"/>
       <c r="O17" s="5" t="n"/>
       <c r="P17" s="5" t="n"/>
@@ -1019,7 +1023,7 @@
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
       <c r="N18" s="5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O18" s="5" t="n"/>
       <c r="P18" s="5" t="n"/>
@@ -1053,7 +1057,9 @@
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="5" t="n"/>
       <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
+      <c r="O19" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="P19" s="5" t="n"/>
       <c r="Q19" s="5" t="n"/>
       <c r="R19" s="5" t="n"/>
@@ -1081,7 +1087,9 @@
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
       <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
+      <c r="K20" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="L20" s="5" t="n"/>
       <c r="M20" s="5" t="n"/>
       <c r="N20" s="5" t="n"/>
@@ -1115,7 +1123,9 @@
       <c r="J21" s="5" t="n"/>
       <c r="K21" s="5" t="n"/>
       <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
+      <c r="M21" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="N21" s="5" t="n"/>
       <c r="O21" s="5" t="n"/>
       <c r="P21" s="5" t="n"/>
@@ -1142,7 +1152,9 @@
       <c r="E22" s="5" t="n"/>
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="H22" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="I22" s="5" t="n"/>
       <c r="J22" s="5" t="n"/>
       <c r="K22" s="5" t="n"/>
@@ -1177,13 +1189,13 @@
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="5" t="n"/>
       <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n">
-        <v>12</v>
-      </c>
+      <c r="K23" s="5" t="n"/>
       <c r="L23" s="5" t="n"/>
       <c r="M23" s="5" t="n"/>
       <c r="N23" s="5" t="n"/>
-      <c r="O23" s="5" t="n"/>
+      <c r="O23" s="5" t="n">
+        <v>23</v>
+      </c>
       <c r="P23" s="5" t="n"/>
       <c r="Q23" s="5" t="n"/>
       <c r="R23" s="5" t="n"/>
@@ -1213,7 +1225,9 @@
       <c r="J24" s="5" t="n"/>
       <c r="K24" s="5" t="n"/>
       <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n"/>
+      <c r="M24" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="N24" s="5" t="n"/>
       <c r="O24" s="5" t="n"/>
       <c r="P24" s="5" t="n"/>
@@ -1242,9 +1256,7 @@
       <c r="G25" s="5" t="n"/>
       <c r="H25" s="5" t="n"/>
       <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J25" s="5" t="n"/>
       <c r="K25" s="5" t="n"/>
       <c r="L25" s="5" t="n"/>
       <c r="M25" s="5" t="n"/>
@@ -1304,9 +1316,13 @@
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="5" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
+      <c r="F27" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
+      <c r="H27" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="I27" s="5" t="n"/>
       <c r="J27" s="5" t="n"/>
       <c r="K27" s="5" t="n"/>
@@ -1407,7 +1423,9 @@
       <c r="J30" s="5" t="n"/>
       <c r="K30" s="5" t="n"/>
       <c r="L30" s="5" t="n"/>
-      <c r="M30" s="5" t="n"/>
+      <c r="M30" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="N30" s="5" t="n"/>
       <c r="O30" s="5" t="n"/>
       <c r="P30" s="5" t="n"/>
@@ -1434,9 +1452,7 @@
       <c r="E31" s="5" t="n"/>
       <c r="F31" s="5" t="n"/>
       <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n">
-        <v>6</v>
-      </c>
+      <c r="H31" s="5" t="n"/>
       <c r="I31" s="5" t="n"/>
       <c r="J31" s="5" t="n"/>
       <c r="K31" s="5" t="n"/>
@@ -1528,21 +1544,19 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="C34" s="5" t="n"/>
-      <c r="D34" s="5" t="n">
-        <v>13</v>
-      </c>
+      <c r="D34" s="5" t="n"/>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="5" t="n"/>
       <c r="G34" s="5" t="n"/>
       <c r="H34" s="5" t="n"/>
       <c r="I34" s="5" t="n"/>
-      <c r="J34" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="J34" s="5" t="n"/>
       <c r="K34" s="5" t="n"/>
       <c r="L34" s="5" t="n"/>
       <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
+      <c r="N34" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="O34" s="5" t="n"/>
       <c r="P34" s="5" t="n"/>
       <c r="Q34" s="5" t="n"/>
@@ -1568,14 +1582,18 @@
       <c r="E35" s="5" t="n"/>
       <c r="F35" s="5" t="n"/>
       <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
+      <c r="H35" s="5" t="n">
+        <v>14</v>
+      </c>
       <c r="I35" s="5" t="n"/>
       <c r="J35" s="5" t="n"/>
       <c r="K35" s="5" t="n"/>
       <c r="L35" s="5" t="n"/>
       <c r="M35" s="5" t="n"/>
       <c r="N35" s="5" t="n"/>
-      <c r="O35" s="5" t="n"/>
+      <c r="O35" s="5" t="n">
+        <v>21</v>
+      </c>
       <c r="P35" s="5" t="n"/>
       <c r="Q35" s="5" t="n"/>
       <c r="R35" s="5" t="n"/>
@@ -1640,9 +1658,7 @@
       <c r="M37" s="5" t="n"/>
       <c r="N37" s="5" t="n"/>
       <c r="O37" s="5" t="n"/>
-      <c r="P37" s="5" t="n">
-        <v>9</v>
-      </c>
+      <c r="P37" s="5" t="n"/>
       <c r="Q37" s="5" t="n"/>
       <c r="R37" s="5" t="n"/>
       <c r="S37" s="5" t="n"/>
@@ -1666,9 +1682,7 @@
       <c r="E38" s="5" t="n"/>
       <c r="F38" s="5" t="n"/>
       <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n">
-        <v>17</v>
-      </c>
+      <c r="H38" s="5" t="n"/>
       <c r="I38" s="5" t="n"/>
       <c r="J38" s="5" t="n"/>
       <c r="K38" s="5" t="n"/>
@@ -1705,9 +1719,7 @@
       <c r="J39" s="5" t="n"/>
       <c r="K39" s="5" t="n"/>
       <c r="L39" s="5" t="n"/>
-      <c r="M39" s="5" t="n">
-        <v>10</v>
-      </c>
+      <c r="M39" s="5" t="n"/>
       <c r="N39" s="5" t="n"/>
       <c r="O39" s="5" t="n"/>
       <c r="P39" s="5" t="n"/>
@@ -1734,9 +1746,7 @@
       <c r="E40" s="5" t="n"/>
       <c r="F40" s="5" t="n"/>
       <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n">
-        <v>14</v>
-      </c>
+      <c r="H40" s="5" t="n"/>
       <c r="I40" s="5" t="n"/>
       <c r="J40" s="5" t="n"/>
       <c r="K40" s="5" t="n"/>
@@ -1775,9 +1785,7 @@
       <c r="L41" s="5" t="n"/>
       <c r="M41" s="5" t="n"/>
       <c r="N41" s="5" t="n"/>
-      <c r="O41" s="5" t="n">
-        <v>5</v>
-      </c>
+      <c r="O41" s="5" t="n"/>
       <c r="P41" s="5" t="n"/>
       <c r="Q41" s="5" t="n"/>
       <c r="R41" s="5" t="n"/>
@@ -1864,9 +1872,7 @@
       <c r="C44" s="5" t="n"/>
       <c r="D44" s="5" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="5" t="n">
-        <v>18</v>
-      </c>
+      <c r="F44" s="5" t="n"/>
       <c r="G44" s="5" t="n"/>
       <c r="H44" s="5" t="n"/>
       <c r="I44" s="5" t="n"/>
@@ -1898,14 +1904,14 @@
       <c r="C45" s="5" t="n"/>
       <c r="D45" s="5" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="5" t="n"/>
+      <c r="F45" s="5" t="n">
+        <v>20</v>
+      </c>
       <c r="G45" s="5" t="n"/>
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="n"/>
       <c r="J45" s="5" t="n"/>
-      <c r="K45" s="5" t="n">
-        <v>23</v>
-      </c>
+      <c r="K45" s="5" t="n"/>
       <c r="L45" s="5" t="n"/>
       <c r="M45" s="5" t="n"/>
       <c r="N45" s="5" t="n"/>
@@ -1942,7 +1948,9 @@
       <c r="M46" s="5" t="n"/>
       <c r="N46" s="5" t="n"/>
       <c r="O46" s="5" t="n"/>
-      <c r="P46" s="5" t="n"/>
+      <c r="P46" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" s="5" t="n"/>
       <c r="R46" s="5" t="n"/>
       <c r="S46" s="5" t="n"/>
@@ -1994,20 +2002,14 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="C48" s="5" t="n"/>
-      <c r="D48" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E48" s="5" t="n">
-        <v>16</v>
-      </c>
+      <c r="D48" s="5" t="n"/>
+      <c r="E48" s="5" t="n"/>
       <c r="F48" s="5" t="n"/>
       <c r="G48" s="5" t="n"/>
       <c r="H48" s="5" t="n"/>
       <c r="I48" s="5" t="n"/>
       <c r="J48" s="5" t="n"/>
-      <c r="K48" s="5" t="n">
-        <v>22</v>
-      </c>
+      <c r="K48" s="5" t="n"/>
       <c r="L48" s="5" t="n"/>
       <c r="M48" s="5" t="n"/>
       <c r="N48" s="5" t="n"/>
@@ -2036,9 +2038,7 @@
       <c r="E49" s="5" t="n"/>
       <c r="F49" s="5" t="n"/>
       <c r="G49" s="5" t="n"/>
-      <c r="H49" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="H49" s="5" t="n"/>
       <c r="I49" s="5" t="n"/>
       <c r="J49" s="5" t="n"/>
       <c r="K49" s="5" t="n"/>
@@ -2046,9 +2046,7 @@
       <c r="M49" s="5" t="n"/>
       <c r="N49" s="5" t="n"/>
       <c r="O49" s="5" t="n"/>
-      <c r="P49" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="P49" s="5" t="n"/>
       <c r="Q49" s="5" t="n"/>
       <c r="R49" s="5" t="n"/>
       <c r="S49" s="5" t="n"/>
@@ -2075,9 +2073,7 @@
       <c r="H50" s="5" t="n"/>
       <c r="I50" s="5" t="n"/>
       <c r="J50" s="5" t="n"/>
-      <c r="K50" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="K50" s="5" t="n"/>
       <c r="L50" s="5" t="n"/>
       <c r="M50" s="5" t="n"/>
       <c r="N50" s="5" t="n"/>
@@ -2103,7 +2099,9 @@
       </c>
       <c r="C51" s="5" t="n"/>
       <c r="D51" s="5" t="n"/>
-      <c r="E51" s="5" t="n"/>
+      <c r="E51" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="F51" s="5" t="n"/>
       <c r="G51" s="5" t="n"/>
       <c r="H51" s="5" t="n"/>
@@ -2267,7 +2265,9 @@
       <c r="F56" s="5" t="n"/>
       <c r="G56" s="5" t="n"/>
       <c r="H56" s="5" t="n"/>
-      <c r="I56" s="5" t="n"/>
+      <c r="I56" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="J56" s="5" t="n"/>
       <c r="K56" s="5" t="n"/>
       <c r="L56" s="5" t="n"/>
@@ -2326,9 +2326,7 @@
         <v>0.75</v>
       </c>
       <c r="C58" s="5" t="n"/>
-      <c r="D58" s="5" t="n">
-        <v>7</v>
-      </c>
+      <c r="D58" s="5" t="n"/>
       <c r="E58" s="5" t="n"/>
       <c r="F58" s="5" t="n"/>
       <c r="G58" s="5" t="n"/>

--- a/genetic-conference/results.xlsx
+++ b/genetic-conference/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Day #1</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Room #4</t>
+  </si>
+  <si>
+    <t>Room #5</t>
   </si>
 </sst>
 </file>
@@ -471,17 +474,14 @@
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="n"/>
       <c r="T2" s="5" t="n"/>
       <c r="U2" s="5" t="n"/>
       <c r="V2" s="5" t="n"/>
@@ -505,35 +505,41 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5" t="n"/>
       <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
+      <c r="S3" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="T3" s="5" t="n"/>
       <c r="U3" s="5" t="n"/>
       <c r="V3" s="5" t="n"/>
@@ -549,7 +555,9 @@
       <c r="B4" s="7" t="n">
         <v>0.375</v>
       </c>
-      <c r="C4" s="5" t="n"/>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="5" t="n"/>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
@@ -561,7 +569,9 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
+      <c r="O4" s="5" t="n">
+        <v>35</v>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="n"/>
       <c r="R4" s="5" t="n"/>
@@ -581,7 +591,9 @@
       <c r="B5" s="7" t="n">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
@@ -593,7 +605,9 @@
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
+      <c r="O5" s="5" t="n">
+        <v>35</v>
+      </c>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
@@ -614,20 +628,30 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12</v>
+      </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
+      <c r="G6" s="5" t="n">
+        <v>32</v>
+      </c>
       <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
+      <c r="I6" s="5" t="n">
+        <v>40</v>
+      </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="K6" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
+      <c r="O6" s="5" t="n">
+        <v>35</v>
+      </c>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="n"/>
       <c r="R6" s="5" t="n"/>
@@ -648,15 +672,21 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
+      <c r="D7" s="5" t="n">
+        <v>12</v>
+      </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
+      <c r="G7" s="5" t="n">
+        <v>32</v>
+      </c>
       <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
+      <c r="I7" s="5" t="n">
+        <v>40</v>
+      </c>
       <c r="J7" s="5" t="n"/>
       <c r="K7" s="5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="5" t="n"/>
@@ -685,17 +715,23 @@
       <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
+      <c r="G8" s="5" t="n">
+        <v>32</v>
+      </c>
       <c r="H8" s="5" t="n"/>
       <c r="I8" s="5" t="n"/>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
+      <c r="K8" s="5" t="n">
+        <v>26</v>
+      </c>
       <c r="L8" s="5" t="n"/>
       <c r="M8" s="5" t="n"/>
       <c r="N8" s="5" t="n"/>
       <c r="O8" s="5" t="n"/>
       <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
+      <c r="Q8" s="5" t="n">
+        <v>48</v>
+      </c>
       <c r="R8" s="5" t="n"/>
       <c r="S8" s="5" t="n"/>
       <c r="T8" s="5" t="n"/>
@@ -719,17 +755,21 @@
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="5" t="n"/>
       <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
+      <c r="I9" s="5" t="n">
+        <v>42</v>
+      </c>
       <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
+      <c r="K9" s="5" t="n">
+        <v>26</v>
+      </c>
       <c r="L9" s="5" t="n"/>
       <c r="M9" s="5" t="n"/>
       <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n">
-        <v>18</v>
-      </c>
+      <c r="O9" s="5" t="n"/>
       <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="5" t="n"/>
+      <c r="Q9" s="5" t="n">
+        <v>48</v>
+      </c>
       <c r="R9" s="5" t="n"/>
       <c r="S9" s="5" t="n"/>
       <c r="T9" s="5" t="n"/>
@@ -753,9 +793,13 @@
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
+      <c r="I10" s="5" t="n">
+        <v>42</v>
+      </c>
       <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
+      <c r="K10" s="5" t="n">
+        <v>26</v>
+      </c>
       <c r="L10" s="5" t="n"/>
       <c r="M10" s="5" t="n"/>
       <c r="N10" s="5" t="n"/>
@@ -843,13 +887,11 @@
       <c r="B13" s="7" t="n">
         <v>0.4375</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="C13" s="5" t="n"/>
       <c r="D13" s="5" t="n"/>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
@@ -881,15 +923,23 @@
       </c>
       <c r="C14" s="5" t="n"/>
       <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
+      <c r="E14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="H14" s="5" t="n"/>
       <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
+      <c r="M14" s="5" t="n">
+        <v>17</v>
+      </c>
       <c r="N14" s="5" t="n"/>
       <c r="O14" s="5" t="n"/>
       <c r="P14" s="5" t="n"/>
@@ -914,16 +964,22 @@
       <c r="C15" s="5" t="n"/>
       <c r="D15" s="5" t="n"/>
       <c r="E15" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="H15" s="5" t="n"/>
       <c r="I15" s="5" t="n"/>
       <c r="J15" s="5" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
+      <c r="M15" s="5" t="n">
+        <v>17</v>
+      </c>
       <c r="N15" s="5" t="n"/>
       <c r="O15" s="5" t="n"/>
       <c r="P15" s="5" t="n"/>
@@ -946,10 +1002,10 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="n"/>
       <c r="H16" s="5" t="n"/>
@@ -962,7 +1018,9 @@
       <c r="O16" s="5" t="n"/>
       <c r="P16" s="5" t="n"/>
       <c r="Q16" s="5" t="n"/>
-      <c r="R16" s="5" t="n"/>
+      <c r="R16" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="S16" s="5" t="n"/>
       <c r="T16" s="5" t="n"/>
       <c r="U16" s="5" t="n"/>
@@ -993,8 +1051,12 @@
       <c r="N17" s="5" t="n"/>
       <c r="O17" s="5" t="n"/>
       <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="5" t="n"/>
-      <c r="R17" s="5" t="n"/>
+      <c r="Q17" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="S17" s="5" t="n"/>
       <c r="T17" s="5" t="n"/>
       <c r="U17" s="5" t="n"/>
@@ -1013,7 +1075,9 @@
       </c>
       <c r="C18" s="5" t="n"/>
       <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
+      <c r="E18" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="F18" s="5" t="n"/>
       <c r="G18" s="5" t="n"/>
       <c r="H18" s="5" t="n"/>
@@ -1022,13 +1086,15 @@
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="N18" s="5" t="n"/>
       <c r="O18" s="5" t="n"/>
       <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="5" t="n"/>
-      <c r="R18" s="5" t="n"/>
+      <c r="Q18" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="S18" s="5" t="n"/>
       <c r="T18" s="5" t="n"/>
       <c r="U18" s="5" t="n"/>
@@ -1047,7 +1113,9 @@
       </c>
       <c r="C19" s="5" t="n"/>
       <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
+      <c r="E19" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="F19" s="5" t="n"/>
       <c r="G19" s="5" t="n"/>
       <c r="H19" s="5" t="n"/>
@@ -1057,12 +1125,12 @@
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="5" t="n"/>
       <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="O19" s="5" t="n"/>
       <c r="P19" s="5" t="n"/>
       <c r="Q19" s="5" t="n"/>
-      <c r="R19" s="5" t="n"/>
+      <c r="R19" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="S19" s="5" t="n"/>
       <c r="T19" s="5" t="n"/>
       <c r="U19" s="5" t="n"/>
@@ -1087,16 +1155,16 @@
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
       <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n">
-        <v>13</v>
-      </c>
+      <c r="K20" s="5" t="n"/>
       <c r="L20" s="5" t="n"/>
       <c r="M20" s="5" t="n"/>
       <c r="N20" s="5" t="n"/>
       <c r="O20" s="5" t="n"/>
       <c r="P20" s="5" t="n"/>
       <c r="Q20" s="5" t="n"/>
-      <c r="R20" s="5" t="n"/>
+      <c r="R20" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="S20" s="5" t="n"/>
       <c r="T20" s="5" t="n"/>
       <c r="U20" s="5" t="n"/>
@@ -1121,16 +1189,18 @@
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="5" t="n"/>
       <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
+      <c r="K21" s="5" t="n">
+        <v>23</v>
+      </c>
       <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n">
-        <v>16</v>
-      </c>
+      <c r="M21" s="5" t="n"/>
       <c r="N21" s="5" t="n"/>
       <c r="O21" s="5" t="n"/>
       <c r="P21" s="5" t="n"/>
       <c r="Q21" s="5" t="n"/>
-      <c r="R21" s="5" t="n"/>
+      <c r="R21" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="S21" s="5" t="n"/>
       <c r="T21" s="5" t="n"/>
       <c r="U21" s="5" t="n"/>
@@ -1152,17 +1222,19 @@
       <c r="E22" s="5" t="n"/>
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="H22" s="5" t="n"/>
       <c r="I22" s="5" t="n"/>
       <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
+      <c r="K22" s="5" t="n">
+        <v>23</v>
+      </c>
       <c r="L22" s="5" t="n"/>
       <c r="M22" s="5" t="n"/>
       <c r="N22" s="5" t="n"/>
       <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
+      <c r="P22" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="Q22" s="5" t="n"/>
       <c r="R22" s="5" t="n"/>
       <c r="S22" s="5" t="n"/>
@@ -1184,7 +1256,9 @@
       <c r="C23" s="5" t="n"/>
       <c r="D23" s="5" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
+      <c r="F23" s="5" t="n">
+        <v>14</v>
+      </c>
       <c r="G23" s="5" t="n"/>
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="5" t="n"/>
@@ -1194,12 +1268,16 @@
       <c r="M23" s="5" t="n"/>
       <c r="N23" s="5" t="n"/>
       <c r="O23" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="P23" s="5" t="n"/>
+        <v>24</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="Q23" s="5" t="n"/>
       <c r="R23" s="5" t="n"/>
-      <c r="S23" s="5" t="n"/>
+      <c r="S23" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="T23" s="5" t="n"/>
       <c r="U23" s="5" t="n"/>
       <c r="V23" s="5" t="n"/>
@@ -1218,22 +1296,30 @@
       <c r="C24" s="5" t="n"/>
       <c r="D24" s="5" t="n"/>
       <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
+      <c r="F24" s="5" t="n">
+        <v>14</v>
+      </c>
       <c r="G24" s="5" t="n"/>
       <c r="H24" s="5" t="n"/>
       <c r="I24" s="5" t="n"/>
       <c r="J24" s="5" t="n"/>
       <c r="K24" s="5" t="n"/>
       <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="M24" s="5" t="n"/>
       <c r="N24" s="5" t="n"/>
-      <c r="O24" s="5" t="n"/>
-      <c r="P24" s="5" t="n"/>
-      <c r="Q24" s="5" t="n"/>
+      <c r="O24" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="R24" s="5" t="n"/>
-      <c r="S24" s="5" t="n"/>
+      <c r="S24" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="T24" s="5" t="n"/>
       <c r="U24" s="5" t="n"/>
       <c r="V24" s="5" t="n"/>
@@ -1263,7 +1349,9 @@
       <c r="N25" s="5" t="n"/>
       <c r="O25" s="5" t="n"/>
       <c r="P25" s="5" t="n"/>
-      <c r="Q25" s="5" t="n"/>
+      <c r="Q25" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="R25" s="5" t="n"/>
       <c r="S25" s="5" t="n"/>
       <c r="T25" s="5" t="n"/>
@@ -1316,13 +1404,9 @@
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="5" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n">
-        <v>9</v>
-      </c>
+      <c r="F27" s="5" t="n"/>
       <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n">
-        <v>19</v>
-      </c>
+      <c r="H27" s="5" t="n"/>
       <c r="I27" s="5" t="n"/>
       <c r="J27" s="5" t="n"/>
       <c r="K27" s="5" t="n"/>
@@ -1423,9 +1507,7 @@
       <c r="J30" s="5" t="n"/>
       <c r="K30" s="5" t="n"/>
       <c r="L30" s="5" t="n"/>
-      <c r="M30" s="5" t="n">
-        <v>15</v>
-      </c>
+      <c r="M30" s="5" t="n"/>
       <c r="N30" s="5" t="n"/>
       <c r="O30" s="5" t="n"/>
       <c r="P30" s="5" t="n"/>
@@ -1543,7 +1625,9 @@
       <c r="B34" s="7" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="C34" s="5" t="n"/>
+      <c r="C34" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="D34" s="5" t="n"/>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="5" t="n"/>
@@ -1552,11 +1636,11 @@
       <c r="I34" s="5" t="n"/>
       <c r="J34" s="5" t="n"/>
       <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
+      <c r="L34" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n">
-        <v>6</v>
-      </c>
+      <c r="N34" s="5" t="n"/>
       <c r="O34" s="5" t="n"/>
       <c r="P34" s="5" t="n"/>
       <c r="Q34" s="5" t="n"/>
@@ -1577,23 +1661,27 @@
       <c r="B35" s="7" t="n">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C35" s="5" t="n"/>
+      <c r="C35" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="D35" s="5" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="5" t="n"/>
+      <c r="F35" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n">
-        <v>14</v>
-      </c>
+      <c r="H35" s="5" t="n"/>
       <c r="I35" s="5" t="n"/>
       <c r="J35" s="5" t="n"/>
       <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
-      <c r="M35" s="5" t="n"/>
+      <c r="L35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>28</v>
+      </c>
       <c r="N35" s="5" t="n"/>
-      <c r="O35" s="5" t="n">
-        <v>21</v>
-      </c>
+      <c r="O35" s="5" t="n"/>
       <c r="P35" s="5" t="n"/>
       <c r="Q35" s="5" t="n"/>
       <c r="R35" s="5" t="n"/>
@@ -1616,19 +1704,27 @@
       <c r="C36" s="5" t="n"/>
       <c r="D36" s="5" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="5" t="n"/>
+      <c r="F36" s="5" t="n">
+        <v>44</v>
+      </c>
       <c r="G36" s="5" t="n"/>
       <c r="H36" s="5" t="n"/>
-      <c r="I36" s="5" t="n"/>
+      <c r="I36" s="5" t="n">
+        <v>49</v>
+      </c>
       <c r="J36" s="5" t="n"/>
       <c r="K36" s="5" t="n"/>
       <c r="L36" s="5" t="n"/>
-      <c r="M36" s="5" t="n"/>
+      <c r="M36" s="5" t="n">
+        <v>28</v>
+      </c>
       <c r="N36" s="5" t="n"/>
       <c r="O36" s="5" t="n"/>
       <c r="P36" s="5" t="n"/>
       <c r="Q36" s="5" t="n"/>
-      <c r="R36" s="5" t="n"/>
+      <c r="R36" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="S36" s="5" t="n"/>
       <c r="T36" s="5" t="n"/>
       <c r="U36" s="5" t="n"/>
@@ -1651,7 +1747,9 @@
       <c r="F37" s="5" t="n"/>
       <c r="G37" s="5" t="n"/>
       <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
+      <c r="I37" s="5" t="n">
+        <v>49</v>
+      </c>
       <c r="J37" s="5" t="n"/>
       <c r="K37" s="5" t="n"/>
       <c r="L37" s="5" t="n"/>
@@ -1660,7 +1758,9 @@
       <c r="O37" s="5" t="n"/>
       <c r="P37" s="5" t="n"/>
       <c r="Q37" s="5" t="n"/>
-      <c r="R37" s="5" t="n"/>
+      <c r="R37" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="S37" s="5" t="n"/>
       <c r="T37" s="5" t="n"/>
       <c r="U37" s="5" t="n"/>
@@ -1681,9 +1781,13 @@
       <c r="D38" s="5" t="n"/>
       <c r="E38" s="5" t="n"/>
       <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
+      <c r="G38" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="H38" s="5" t="n"/>
-      <c r="I38" s="5" t="n"/>
+      <c r="I38" s="5" t="n">
+        <v>49</v>
+      </c>
       <c r="J38" s="5" t="n"/>
       <c r="K38" s="5" t="n"/>
       <c r="L38" s="5" t="n"/>
@@ -1713,7 +1817,9 @@
       <c r="D39" s="5" t="n"/>
       <c r="E39" s="5" t="n"/>
       <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
+      <c r="G39" s="5" t="n">
+        <v>13</v>
+      </c>
       <c r="H39" s="5" t="n"/>
       <c r="I39" s="5" t="n"/>
       <c r="J39" s="5" t="n"/>
@@ -1743,7 +1849,9 @@
       </c>
       <c r="C40" s="5" t="n"/>
       <c r="D40" s="5" t="n"/>
-      <c r="E40" s="5" t="n"/>
+      <c r="E40" s="5" t="n">
+        <v>33</v>
+      </c>
       <c r="F40" s="5" t="n"/>
       <c r="G40" s="5" t="n"/>
       <c r="H40" s="5" t="n"/>
@@ -1754,7 +1862,9 @@
       <c r="M40" s="5" t="n"/>
       <c r="N40" s="5" t="n"/>
       <c r="O40" s="5" t="n"/>
-      <c r="P40" s="5" t="n"/>
+      <c r="P40" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="Q40" s="5" t="n"/>
       <c r="R40" s="5" t="n"/>
       <c r="S40" s="5" t="n"/>
@@ -1774,8 +1884,12 @@
         <v>0.6319444444444444</v>
       </c>
       <c r="C41" s="5" t="n"/>
-      <c r="D41" s="5" t="n"/>
-      <c r="E41" s="5" t="n"/>
+      <c r="D41" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>33</v>
+      </c>
       <c r="F41" s="5" t="n"/>
       <c r="G41" s="5" t="n"/>
       <c r="H41" s="5" t="n"/>
@@ -1786,7 +1900,9 @@
       <c r="M41" s="5" t="n"/>
       <c r="N41" s="5" t="n"/>
       <c r="O41" s="5" t="n"/>
-      <c r="P41" s="5" t="n"/>
+      <c r="P41" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="Q41" s="5" t="n"/>
       <c r="R41" s="5" t="n"/>
       <c r="S41" s="5" t="n"/>
@@ -1806,7 +1922,9 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="C42" s="5" t="n"/>
-      <c r="D42" s="5" t="n"/>
+      <c r="D42" s="5" t="n">
+        <v>34</v>
+      </c>
       <c r="E42" s="5" t="n"/>
       <c r="F42" s="5" t="n"/>
       <c r="G42" s="5" t="n"/>
@@ -1818,7 +1936,9 @@
       <c r="M42" s="5" t="n"/>
       <c r="N42" s="5" t="n"/>
       <c r="O42" s="5" t="n"/>
-      <c r="P42" s="5" t="n"/>
+      <c r="P42" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="Q42" s="5" t="n"/>
       <c r="R42" s="5" t="n"/>
       <c r="S42" s="5" t="n"/>
@@ -1903,17 +2023,19 @@
       </c>
       <c r="C45" s="5" t="n"/>
       <c r="D45" s="5" t="n"/>
-      <c r="E45" s="5" t="n"/>
-      <c r="F45" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="E45" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" s="5" t="n"/>
       <c r="G45" s="5" t="n"/>
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="n"/>
       <c r="J45" s="5" t="n"/>
       <c r="K45" s="5" t="n"/>
       <c r="L45" s="5" t="n"/>
-      <c r="M45" s="5" t="n"/>
+      <c r="M45" s="5" t="n">
+        <v>37</v>
+      </c>
       <c r="N45" s="5" t="n"/>
       <c r="O45" s="5" t="n"/>
       <c r="P45" s="5" t="n"/>
@@ -1937,7 +2059,9 @@
       </c>
       <c r="C46" s="5" t="n"/>
       <c r="D46" s="5" t="n"/>
-      <c r="E46" s="5" t="n"/>
+      <c r="E46" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="F46" s="5" t="n"/>
       <c r="G46" s="5" t="n"/>
       <c r="H46" s="5" t="n"/>
@@ -1945,12 +2069,12 @@
       <c r="J46" s="5" t="n"/>
       <c r="K46" s="5" t="n"/>
       <c r="L46" s="5" t="n"/>
-      <c r="M46" s="5" t="n"/>
+      <c r="M46" s="5" t="n">
+        <v>37</v>
+      </c>
       <c r="N46" s="5" t="n"/>
       <c r="O46" s="5" t="n"/>
-      <c r="P46" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" s="5" t="n"/>
       <c r="Q46" s="5" t="n"/>
       <c r="R46" s="5" t="n"/>
       <c r="S46" s="5" t="n"/>
@@ -1971,15 +2095,21 @@
       </c>
       <c r="C47" s="5" t="n"/>
       <c r="D47" s="5" t="n"/>
-      <c r="E47" s="5" t="n"/>
+      <c r="E47" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="F47" s="5" t="n"/>
       <c r="G47" s="5" t="n"/>
       <c r="H47" s="5" t="n"/>
       <c r="I47" s="5" t="n"/>
       <c r="J47" s="5" t="n"/>
       <c r="K47" s="5" t="n"/>
-      <c r="L47" s="5" t="n"/>
-      <c r="M47" s="5" t="n"/>
+      <c r="L47" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>37</v>
+      </c>
       <c r="N47" s="5" t="n"/>
       <c r="O47" s="5" t="n"/>
       <c r="P47" s="5" t="n"/>
@@ -2010,14 +2140,20 @@
       <c r="I48" s="5" t="n"/>
       <c r="J48" s="5" t="n"/>
       <c r="K48" s="5" t="n"/>
-      <c r="L48" s="5" t="n"/>
+      <c r="L48" s="5" t="n">
+        <v>38</v>
+      </c>
       <c r="M48" s="5" t="n"/>
       <c r="N48" s="5" t="n"/>
       <c r="O48" s="5" t="n"/>
       <c r="P48" s="5" t="n"/>
-      <c r="Q48" s="5" t="n"/>
+      <c r="Q48" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="R48" s="5" t="n"/>
-      <c r="S48" s="5" t="n"/>
+      <c r="S48" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="T48" s="5" t="n"/>
       <c r="U48" s="5" t="n"/>
       <c r="V48" s="5" t="n"/>
@@ -2047,9 +2183,15 @@
       <c r="N49" s="5" t="n"/>
       <c r="O49" s="5" t="n"/>
       <c r="P49" s="5" t="n"/>
-      <c r="Q49" s="5" t="n"/>
-      <c r="R49" s="5" t="n"/>
-      <c r="S49" s="5" t="n"/>
+      <c r="Q49" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R49" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="S49" s="5" t="n">
+        <v>41</v>
+      </c>
       <c r="T49" s="5" t="n"/>
       <c r="U49" s="5" t="n"/>
       <c r="V49" s="5" t="n"/>
@@ -2068,7 +2210,9 @@
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="5" t="n"/>
       <c r="E50" s="5" t="n"/>
-      <c r="F50" s="5" t="n"/>
+      <c r="F50" s="5" t="n">
+        <v>27</v>
+      </c>
       <c r="G50" s="5" t="n"/>
       <c r="H50" s="5" t="n"/>
       <c r="I50" s="5" t="n"/>
@@ -2079,8 +2223,12 @@
       <c r="N50" s="5" t="n"/>
       <c r="O50" s="5" t="n"/>
       <c r="P50" s="5" t="n"/>
-      <c r="Q50" s="5" t="n"/>
-      <c r="R50" s="5" t="n"/>
+      <c r="Q50" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>45</v>
+      </c>
       <c r="S50" s="5" t="n"/>
       <c r="T50" s="5" t="n"/>
       <c r="U50" s="5" t="n"/>
@@ -2099,13 +2247,15 @@
       </c>
       <c r="C51" s="5" t="n"/>
       <c r="D51" s="5" t="n"/>
-      <c r="E51" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" s="5" t="n"/>
+      <c r="E51" s="5" t="n"/>
+      <c r="F51" s="5" t="n">
+        <v>27</v>
+      </c>
       <c r="G51" s="5" t="n"/>
       <c r="H51" s="5" t="n"/>
-      <c r="I51" s="5" t="n"/>
+      <c r="I51" s="5" t="n">
+        <v>43</v>
+      </c>
       <c r="J51" s="5" t="n"/>
       <c r="K51" s="5" t="n"/>
       <c r="L51" s="5" t="n"/>
@@ -2114,7 +2264,9 @@
       <c r="O51" s="5" t="n"/>
       <c r="P51" s="5" t="n"/>
       <c r="Q51" s="5" t="n"/>
-      <c r="R51" s="5" t="n"/>
+      <c r="R51" s="5" t="n">
+        <v>45</v>
+      </c>
       <c r="S51" s="5" t="n"/>
       <c r="T51" s="5" t="n"/>
       <c r="U51" s="5" t="n"/>
@@ -2137,7 +2289,9 @@
       <c r="F52" s="5" t="n"/>
       <c r="G52" s="5" t="n"/>
       <c r="H52" s="5" t="n"/>
-      <c r="I52" s="5" t="n"/>
+      <c r="I52" s="5" t="n">
+        <v>43</v>
+      </c>
       <c r="J52" s="5" t="n"/>
       <c r="K52" s="5" t="n"/>
       <c r="L52" s="5" t="n"/>
@@ -2169,7 +2323,9 @@
       <c r="F53" s="5" t="n"/>
       <c r="G53" s="5" t="n"/>
       <c r="H53" s="5" t="n"/>
-      <c r="I53" s="5" t="n"/>
+      <c r="I53" s="5" t="n">
+        <v>43</v>
+      </c>
       <c r="J53" s="5" t="n"/>
       <c r="K53" s="5" t="n"/>
       <c r="L53" s="5" t="n"/>
@@ -2233,7 +2389,9 @@
       <c r="F55" s="5" t="n"/>
       <c r="G55" s="5" t="n"/>
       <c r="H55" s="5" t="n"/>
-      <c r="I55" s="5" t="n"/>
+      <c r="I55" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="J55" s="5" t="n"/>
       <c r="K55" s="5" t="n"/>
       <c r="L55" s="5" t="n"/>
@@ -2241,7 +2399,9 @@
       <c r="N55" s="5" t="n"/>
       <c r="O55" s="5" t="n"/>
       <c r="P55" s="5" t="n"/>
-      <c r="Q55" s="5" t="n"/>
+      <c r="Q55" s="5" t="n">
+        <v>39</v>
+      </c>
       <c r="R55" s="5" t="n"/>
       <c r="S55" s="5" t="n"/>
       <c r="T55" s="5" t="n"/>
@@ -2275,7 +2435,9 @@
       <c r="N56" s="5" t="n"/>
       <c r="O56" s="5" t="n"/>
       <c r="P56" s="5" t="n"/>
-      <c r="Q56" s="5" t="n"/>
+      <c r="Q56" s="5" t="n">
+        <v>39</v>
+      </c>
       <c r="R56" s="5" t="n"/>
       <c r="S56" s="5" t="n"/>
       <c r="T56" s="5" t="n"/>
@@ -2294,12 +2456,16 @@
         <v>0.7430555555555556</v>
       </c>
       <c r="C57" s="5" t="n"/>
-      <c r="D57" s="5" t="n"/>
+      <c r="D57" s="5" t="n">
+        <v>21</v>
+      </c>
       <c r="E57" s="5" t="n"/>
       <c r="F57" s="5" t="n"/>
       <c r="G57" s="5" t="n"/>
       <c r="H57" s="5" t="n"/>
-      <c r="I57" s="5" t="n"/>
+      <c r="I57" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="J57" s="5" t="n"/>
       <c r="K57" s="5" t="n"/>
       <c r="L57" s="5" t="n"/>
@@ -2326,15 +2492,21 @@
         <v>0.75</v>
       </c>
       <c r="C58" s="5" t="n"/>
-      <c r="D58" s="5" t="n"/>
-      <c r="E58" s="5" t="n"/>
+      <c r="D58" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="F58" s="5" t="n"/>
       <c r="G58" s="5" t="n"/>
       <c r="H58" s="5" t="n"/>
       <c r="I58" s="5" t="n"/>
       <c r="J58" s="5" t="n"/>
       <c r="K58" s="5" t="n"/>
-      <c r="L58" s="5" t="n"/>
+      <c r="L58" s="5" t="n">
+        <v>36</v>
+      </c>
       <c r="M58" s="5" t="n"/>
       <c r="N58" s="5" t="n"/>
       <c r="O58" s="5" t="n"/>
@@ -2358,18 +2530,26 @@
         <v>0.7569444444444444</v>
       </c>
       <c r="C59" s="5" t="n"/>
-      <c r="D59" s="5" t="n"/>
-      <c r="E59" s="5" t="n"/>
+      <c r="D59" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="F59" s="5" t="n"/>
       <c r="G59" s="5" t="n"/>
       <c r="H59" s="5" t="n"/>
       <c r="I59" s="5" t="n"/>
       <c r="J59" s="5" t="n"/>
       <c r="K59" s="5" t="n"/>
-      <c r="L59" s="5" t="n"/>
+      <c r="L59" s="5" t="n">
+        <v>36</v>
+      </c>
       <c r="M59" s="5" t="n"/>
       <c r="N59" s="5" t="n"/>
-      <c r="O59" s="5" t="n"/>
+      <c r="O59" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="P59" s="5" t="n"/>
       <c r="Q59" s="5" t="n"/>
       <c r="R59" s="5" t="n"/>
@@ -2391,7 +2571,9 @@
       </c>
       <c r="C60" s="5" t="n"/>
       <c r="D60" s="5" t="n"/>
-      <c r="E60" s="5" t="n"/>
+      <c r="E60" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="F60" s="5" t="n"/>
       <c r="G60" s="5" t="n"/>
       <c r="H60" s="5" t="n"/>
@@ -2401,9 +2583,13 @@
       <c r="L60" s="5" t="n"/>
       <c r="M60" s="5" t="n"/>
       <c r="N60" s="5" t="n"/>
-      <c r="O60" s="5" t="n"/>
+      <c r="O60" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="P60" s="5" t="n"/>
-      <c r="Q60" s="5" t="n"/>
+      <c r="Q60" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="R60" s="5" t="n"/>
       <c r="S60" s="5" t="n"/>
       <c r="T60" s="5" t="n"/>
@@ -2423,7 +2609,9 @@
       </c>
       <c r="C61" s="5" t="n"/>
       <c r="D61" s="5" t="n"/>
-      <c r="E61" s="5" t="n"/>
+      <c r="E61" s="5" t="n">
+        <v>29</v>
+      </c>
       <c r="F61" s="5" t="n"/>
       <c r="G61" s="5" t="n"/>
       <c r="H61" s="5" t="n"/>
@@ -2433,9 +2621,13 @@
       <c r="L61" s="5" t="n"/>
       <c r="M61" s="5" t="n"/>
       <c r="N61" s="5" t="n"/>
-      <c r="O61" s="5" t="n"/>
+      <c r="O61" s="5" t="n">
+        <v>25</v>
+      </c>
       <c r="P61" s="5" t="n"/>
-      <c r="Q61" s="5" t="n"/>
+      <c r="Q61" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="R61" s="5" t="n"/>
       <c r="S61" s="5" t="n"/>
       <c r="T61" s="5" t="n"/>
@@ -2455,7 +2647,9 @@
       </c>
       <c r="C62" s="5" t="n"/>
       <c r="D62" s="5" t="n"/>
-      <c r="E62" s="5" t="n"/>
+      <c r="E62" s="5" t="n">
+        <v>29</v>
+      </c>
       <c r="F62" s="5" t="n"/>
       <c r="G62" s="5" t="n"/>
       <c r="H62" s="5" t="n"/>
@@ -2467,7 +2661,9 @@
       <c r="N62" s="5" t="n"/>
       <c r="O62" s="5" t="n"/>
       <c r="P62" s="5" t="n"/>
-      <c r="Q62" s="5" t="n"/>
+      <c r="Q62" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="R62" s="5" t="n"/>
       <c r="S62" s="5" t="n"/>
       <c r="T62" s="5" t="n"/>
@@ -2487,7 +2683,9 @@
       </c>
       <c r="C63" s="5" t="n"/>
       <c r="D63" s="5" t="n"/>
-      <c r="E63" s="5" t="n"/>
+      <c r="E63" s="5" t="n">
+        <v>29</v>
+      </c>
       <c r="F63" s="5" t="n"/>
       <c r="G63" s="5" t="n"/>
       <c r="H63" s="5" t="n"/>
@@ -2499,7 +2697,9 @@
       <c r="N63" s="5" t="n"/>
       <c r="O63" s="5" t="n"/>
       <c r="P63" s="5" t="n"/>
-      <c r="Q63" s="5" t="n"/>
+      <c r="Q63" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="R63" s="5" t="n"/>
       <c r="S63" s="5" t="n"/>
       <c r="T63" s="5" t="n"/>
@@ -2545,9 +2745,9 @@
     <row customHeight="1" ht="15.75" r="1048576" s="4" spans="1:26"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.9840277777777779" footer="0.511805555555555" header="0.511805555555555" left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779"/>
